--- a/Consumer/Walmart.xlsx
+++ b/Consumer/Walmart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF5EFC-00CA-FB45-8945-FE4A3A0A723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3428D46-AEDE-3A43-95BF-5AFB49C709F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2538,11 +2538,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>154.63999999999999</v>
-    <v>117.27</v>
-    <v>0.49459999999999998</v>
-    <v>0.56999999999999995</v>
-    <v>3.7359999999999997E-3</v>
+    <v>158.22999999999999</v>
+    <v>119.89</v>
+    <v>0.50409999999999999</v>
+    <v>-0.21</v>
+    <v>-1.348E-3</v>
     <v>USD</v>
     <v>Walmart Inc. is a technology-powered omni-channel retailer. The Company provides the opportunity to shop in both retail stores and through e-commerce and to access its other service offerings. It offers an assortment of merchandise and services at everyday low prices (EDLP). It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment is a mass merchandiser of consumer products, operating under the Walmart and Walmart Neighborhood Market brands, as well as walmart.com and other e-commerce brands. Walmart International segment includes various formats divided into two categories: retail and wholesale. These categories consist of many formats, including supercenters, supermarkets, hypermarkets, warehouse clubs (including Sam's Clubs) and cash &amp; carry, as well as e-commerce through walmart.com.mx, walmart.ca, flipkart.com, walmart.cn and other sites. Sam's Club segment is a membership-only warehouse club that also operates samsclub.com.</v>
     <v>2100000</v>
@@ -2550,24 +2550,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>153.27000000000001</v>
+    <v>156.285</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>45057.999668900004</v>
+    <v>45100.783989617972</v>
     <v>0</v>
-    <v>152</v>
-    <v>413017772640</v>
+    <v>155.08000000000001</v>
+    <v>418843555900</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>152.55000000000001</v>
-    <v>35.830399999999997</v>
-    <v>152.55000000000001</v>
-    <v>153.12</v>
-    <v>2697347000</v>
+    <v>155.87</v>
+    <v>37.536299999999997</v>
+    <v>155.75</v>
+    <v>155.54</v>
+    <v>2692835000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>3975620</v>
-    <v>4981634</v>
+    <v>2722231</v>
+    <v>6991534</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2720,10 +2720,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3137,10 +3137,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO9" sqref="AO9"/>
+      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5355,15 +5355,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>0.67565058857594362</v>
+        <v>0.6851809142647749</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>35.361110671232879</v>
+        <v>35.859893484589044</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>33.732258464554064</v>
+        <v>34.208065656648152</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.49459999999999998</v>
+        <v>0.50409999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.2242530000000004E-2</v>
+        <v>6.2651504999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.1248525311139983</v>
+        <v>0.12333010603683404</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>413017772640</v>
+        <v>418843555900</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.8751474688860017</v>
+        <v>0.87666989396316597</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>471940772640</v>
+        <v>477766555900</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.7463640115461297E-2</v>
+        <v>5.7880448947108802E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16525,7 +16525,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>458965999090.20734</v>
+        <v>453147919107.34448</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>473502298621.61963</v>
+        <v>467684218638.75677</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16566,7 +16566,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>5.7463640115461297E-2</v>
+        <v>5.7880448947108802E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>404512840461.72192</v>
+        <v>399371396677.8504</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>354474840461.72192</v>
+        <v>349333396677.8504</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>135.85740999359459</v>
+        <v>133.88688019465422</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>153.12</v>
+        <v>155.54</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-0.11273896294674379</v>
+        <v>-0.13921254857493748</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
